--- a/final_project/gru_gbrbm_H_per_2 (drop 0.2)/type2/pd_results_W15_H200_B32.xlsx
+++ b/final_project/gru_gbrbm_H_per_2 (drop 0.2)/type2/pd_results_W15_H200_B32.xlsx
@@ -502,25 +502,23 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.5367647058823529</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.3870967741935484</v>
-      </c>
+        <v>0.5508982035928144</v>
+      </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>0.7934782608695652</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5089820359281437</v>
+        <v>0.5508982035928144</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6403508771929823</v>
+        <v>0.7104247104247104</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4880239520958084</v>
+        <v>0.5</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -528,19 +526,19 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0.0606227940326471</v>
+        <v>0.05768518914444024</v>
       </c>
       <c r="J2" t="n">
-        <v>812.8745720691192</v>
+        <v>741.6161209172338</v>
       </c>
       <c r="K2" t="n">
-        <v>1041179.048070429</v>
+        <v>741405.8956302131</v>
       </c>
       <c r="L2" t="n">
-        <v>1020.381814846986</v>
+        <v>861.0492991868776</v>
       </c>
       <c r="M2" t="n">
-        <v>0.8069267470255779</v>
+        <v>0.8625158196286934</v>
       </c>
     </row>
   </sheetData>
